--- a/2015-2016/clases/informatica_aplicada/control_asistencia.xlsx
+++ b/2015-2016/clases/informatica_aplicada/control_asistencia.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="25">
   <si>
     <t>Alumnos</t>
   </si>
@@ -82,6 +82,15 @@
   </si>
   <si>
     <t>gabucho99@hotmail.com</t>
+  </si>
+  <si>
+    <t>claudi-94@hotmail.com</t>
+  </si>
+  <si>
+    <t>cris_0.5@hotmail.com</t>
+  </si>
+  <si>
+    <t>elena_nena_91@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -461,7 +470,7 @@
   <dimension ref="B1:X14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,6 +590,9 @@
       <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B4">
@@ -589,11 +601,16 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -609,6 +626,9 @@
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -628,6 +648,9 @@
       <c r="F6" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7">
@@ -645,6 +668,9 @@
       <c r="F7" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B8">
@@ -670,11 +696,16 @@
       <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="E9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -694,6 +725,9 @@
       <c r="F10" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B11">
@@ -717,11 +751,16 @@
       <c r="C12" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="E12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" t="s">
         <v>3</v>
       </c>
     </row>
@@ -739,6 +778,9 @@
       <c r="F13" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G13" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B14">
@@ -754,6 +796,9 @@
         <v>3</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
         <v>3</v>
       </c>
     </row>
@@ -768,9 +813,12 @@
     <hyperlink ref="D10" r:id="rId4"/>
     <hyperlink ref="D14" r:id="rId5"/>
     <hyperlink ref="D3" r:id="rId6"/>
+    <hyperlink ref="D12" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D4" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
 </worksheet>
 </file>
 

--- a/2015-2016/clases/informatica_aplicada/control_asistencia.xlsx
+++ b/2015-2016/clases/informatica_aplicada/control_asistencia.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="821" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="28">
   <si>
     <t>Control Asistencias</t>
   </si>
@@ -134,12 +134,6 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -160,6 +154,12 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -205,10 +205,10 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -218,19 +218,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -242,8 +242,8 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="21" builtinId="54" customBuiltin="true"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal 2" xfId="21" builtinId="54" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -255,8 +255,8 @@
   </sheetPr>
   <dimension ref="B1:X14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L8" activeCellId="0" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -387,6 +387,12 @@
       <c r="J3" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="K3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="n">
@@ -407,6 +413,12 @@
       <c r="G4" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="K4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="n">
@@ -433,6 +445,12 @@
       <c r="J5" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="K5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="n">
@@ -462,6 +480,12 @@
       <c r="J6" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="K6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="n">
@@ -489,6 +513,12 @@
         <v>5</v>
       </c>
       <c r="J7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="0" t="s">
         <v>5</v>
       </c>
     </row>
@@ -517,6 +547,12 @@
       <c r="J8" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="K8" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="n">
@@ -543,6 +579,12 @@
       <c r="J9" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="K9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="n">
@@ -572,6 +614,12 @@
       <c r="J10" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="K10" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="n">
@@ -598,6 +646,12 @@
       <c r="J11" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="K11" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="n">
@@ -627,6 +681,9 @@
       <c r="J12" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="L12" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="n">
@@ -653,6 +710,12 @@
       <c r="J13" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="K13" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="n">
@@ -680,6 +743,12 @@
         <v>5</v>
       </c>
       <c r="J14" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="0" t="s">
         <v>5</v>
       </c>
     </row>
@@ -718,7 +787,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -744,7 +813,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/2015-2016/clases/informatica_aplicada/control_asistencia.xlsx
+++ b/2015-2016/clases/informatica_aplicada/control_asistencia.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="821" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="614" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="28">
   <si>
     <t>Control Asistencias</t>
   </si>
@@ -243,7 +243,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in TableStyleLight1" xfId="21" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="21" builtinId="54" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -256,14 +256,15 @@
   <dimension ref="B1:X14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O14" activeCellId="0" sqref="O14"/>
+      <selection pane="topLeft" activeCell="P9" activeCellId="0" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.1417004048583"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="54.5748987854251"/>
-    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3481781376518"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="9.1417004048583"/>
     <col collapsed="false" hidden="false" max="24" min="8" style="0" width="3"/>
     <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="9.1417004048583"/>
   </cols>
@@ -397,6 +398,12 @@
       <c r="N3" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="O3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="n">
@@ -429,6 +436,9 @@
       <c r="N4" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="O4" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="n">
@@ -470,6 +480,9 @@
       <c r="O5" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="P5" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="n">
@@ -514,6 +527,9 @@
       <c r="O6" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="P6" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="n">
@@ -556,6 +572,9 @@
         <v>5</v>
       </c>
       <c r="O7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="0" t="s">
         <v>5</v>
       </c>
     </row>
@@ -599,6 +618,9 @@
       <c r="O8" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="P8" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="n">
@@ -684,6 +706,9 @@
       <c r="O10" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="P10" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="n">
@@ -725,6 +750,9 @@
       <c r="O11" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="P11" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="n">
@@ -763,6 +791,12 @@
       <c r="N12" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="O12" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="n">
@@ -804,6 +838,9 @@
       <c r="O13" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="P13" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="n">
@@ -846,6 +883,9 @@
         <v>5</v>
       </c>
       <c r="O14" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="0" t="s">
         <v>5</v>
       </c>
     </row>

--- a/2015-2016/clases/informatica_aplicada/control_asistencia.xlsx
+++ b/2015-2016/clases/informatica_aplicada/control_asistencia.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="28">
   <si>
     <t>Control Asistencias</t>
   </si>
@@ -243,7 +243,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="21" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="21" builtinId="54" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -256,7 +256,7 @@
   <dimension ref="B1:X14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P9" activeCellId="0" sqref="P9"/>
+      <selection pane="topLeft" activeCell="Q4" activeCellId="0" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -404,6 +404,9 @@
       <c r="P3" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="Q3" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="n">
@@ -483,6 +486,9 @@
       <c r="P5" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="Q5" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="n">
@@ -530,6 +536,9 @@
       <c r="P6" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="Q6" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="n">
@@ -575,6 +584,9 @@
         <v>5</v>
       </c>
       <c r="P7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="0" t="s">
         <v>5</v>
       </c>
     </row>
@@ -621,6 +633,9 @@
       <c r="P8" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="Q8" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="n">
@@ -709,6 +724,9 @@
       <c r="P10" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="Q10" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="n">
@@ -753,6 +771,9 @@
       <c r="P11" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="Q11" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="n">
@@ -797,6 +818,9 @@
       <c r="P12" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="Q12" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="n">
@@ -841,6 +865,9 @@
       <c r="P13" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="Q13" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="n">
@@ -886,6 +913,9 @@
         <v>5</v>
       </c>
       <c r="P14" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="0" t="s">
         <v>5</v>
       </c>
     </row>
